--- a/master_product.xlsx
+++ b/master_product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\th40190426\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC90F61-8AF9-4BE9-BA7D-CDC77D2D242A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5519FB6F-ACD1-435F-BD27-0F1D1DCEE391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{35E439F9-88A5-4757-9597-F595980A7A64}"/>
   </bookViews>
@@ -2712,8 +2712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291EAF2D-2E74-4A9C-9519-CB18E46B03EB}">
   <dimension ref="A1:M588"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6303,7 +6303,7 @@
         <v>79</v>
       </c>
       <c r="J119" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
@@ -6335,7 +6335,7 @@
         <v>531</v>
       </c>
       <c r="J120" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
@@ -6367,7 +6367,7 @@
         <v>531</v>
       </c>
       <c r="J121" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
@@ -6399,7 +6399,7 @@
         <v>531</v>
       </c>
       <c r="J122" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
@@ -6431,7 +6431,7 @@
         <v>531</v>
       </c>
       <c r="J123" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
@@ -6463,7 +6463,7 @@
         <v>531</v>
       </c>
       <c r="J124" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
@@ -6495,7 +6495,7 @@
         <v>79</v>
       </c>
       <c r="J125" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
@@ -6527,7 +6527,7 @@
         <v>79</v>
       </c>
       <c r="J126" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
@@ -6559,7 +6559,7 @@
         <v>79</v>
       </c>
       <c r="J127" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
@@ -6591,7 +6591,7 @@
         <v>79</v>
       </c>
       <c r="J128" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
@@ -6623,7 +6623,7 @@
         <v>473</v>
       </c>
       <c r="J129" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
@@ -6655,7 +6655,7 @@
         <v>473</v>
       </c>
       <c r="J130" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
@@ -6687,7 +6687,7 @@
         <v>473</v>
       </c>
       <c r="J131" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
@@ -6719,7 +6719,7 @@
         <v>473</v>
       </c>
       <c r="J132" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
@@ -6751,7 +6751,7 @@
         <v>468</v>
       </c>
       <c r="J133" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
@@ -6783,7 +6783,7 @@
         <v>468</v>
       </c>
       <c r="J134" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
@@ -6815,7 +6815,7 @@
         <v>473</v>
       </c>
       <c r="J135" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
@@ -6847,7 +6847,7 @@
         <v>473</v>
       </c>
       <c r="J136" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
@@ -6879,7 +6879,7 @@
         <v>468</v>
       </c>
       <c r="J137" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
@@ -6911,7 +6911,7 @@
         <v>468</v>
       </c>
       <c r="J138" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
